--- a/data/input/absenteeism_data_39.xlsx
+++ b/data/input/absenteeism_data_39.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>31273</v>
+        <v>62998</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Emanuella Caldeira</t>
+          <t>Maitê Moreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45101</v>
+        <v>45080</v>
       </c>
       <c r="G2" t="n">
-        <v>5554.09</v>
+        <v>10430.97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97220</v>
+        <v>50652</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marcelo Araújo</t>
+          <t>Vitor Jesus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,56 +523,56 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45098</v>
+        <v>45086</v>
       </c>
       <c r="G3" t="n">
-        <v>4337</v>
+        <v>6723.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>31899</v>
+        <v>56163</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Noah Dias</t>
+          <t>Thiago da Luz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45089</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>4178.68</v>
+        <v>8134.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12715</v>
+        <v>32428</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carolina da Rocha</t>
+          <t>Leandro da Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,56 +581,56 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45082</v>
+        <v>45079</v>
       </c>
       <c r="G5" t="n">
-        <v>5868.04</v>
+        <v>10463.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>53946</v>
+        <v>73616</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Danilo da Cruz</t>
+          <t>Mirella Farias</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45081</v>
       </c>
       <c r="G6" t="n">
-        <v>2734.78</v>
+        <v>4351.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60143</v>
+        <v>39966</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Peixoto</t>
+          <t>Daniela Cardoso</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G7" t="n">
-        <v>4114.36</v>
+        <v>4013.48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>79958</v>
+        <v>36885</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vitor Hugo Silva</t>
+          <t>Clarice da Cruz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>5879.04</v>
+        <v>3084.48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>35948</v>
+        <v>79382</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gabrielly Moraes</t>
+          <t>Letícia Nogueira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45093</v>
+        <v>45084</v>
       </c>
       <c r="G9" t="n">
-        <v>2870.24</v>
+        <v>9504.82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>52780</v>
+        <v>51586</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Beatriz Fernandes</t>
+          <t>Dr. Thales Vieira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45082</v>
+        <v>45084</v>
       </c>
       <c r="G10" t="n">
-        <v>3406.36</v>
+        <v>8648.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68202</v>
+        <v>94321</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gabriela Peixoto</t>
+          <t>Dr. Yago Pereira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>11023.37</v>
+        <v>8626.530000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_39.xlsx
+++ b/data/input/absenteeism_data_39.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>62998</v>
+        <v>59174</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maitê Moreira</t>
+          <t>Danilo Fogaça</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45080</v>
+        <v>45104</v>
       </c>
       <c r="G2" t="n">
-        <v>10430.97</v>
+        <v>9268.99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>50652</v>
+        <v>70753</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vitor Jesus</t>
+          <t>Clarice Pereira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,56 +523,56 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="G3" t="n">
-        <v>6723.15</v>
+        <v>6224.76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>56163</v>
+        <v>19618</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thiago da Luz</t>
+          <t>Julia Azevedo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>8134.7</v>
+        <v>4325.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>32428</v>
+        <v>77537</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Leandro da Cunha</t>
+          <t>Laís da Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,80 +581,80 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45079</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>10463.08</v>
+        <v>10038.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>73616</v>
+        <v>17864</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mirella Farias</t>
+          <t>João Guilherme Costa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>4351.4</v>
+        <v>8098.48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>39966</v>
+        <v>12544</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Daniela Cardoso</t>
+          <t>Ana Clara Lopes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45103</v>
+        <v>45096</v>
       </c>
       <c r="G7" t="n">
-        <v>4013.48</v>
+        <v>10535.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>36885</v>
+        <v>19664</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Clarice da Cruz</t>
+          <t>Henrique da Rocha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,104 +664,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45102</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>3084.48</v>
+        <v>10106.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79382</v>
+        <v>10936</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Letícia Nogueira</t>
+          <t>Enzo da Rocha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45084</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>9504.82</v>
+        <v>11410.21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>51586</v>
+        <v>48670</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Thales Vieira</t>
+          <t>Davi Lucca Aragão</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45084</v>
+        <v>45099</v>
       </c>
       <c r="G10" t="n">
-        <v>8648.01</v>
+        <v>6240.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94321</v>
+        <v>80387</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dr. Yago Pereira</t>
+          <t>Luigi Caldeira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45093</v>
+        <v>45083</v>
       </c>
       <c r="G11" t="n">
-        <v>8626.530000000001</v>
+        <v>5444.49</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_39.xlsx
+++ b/data/input/absenteeism_data_39.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>59174</v>
+        <v>89755</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Danilo Fogaça</t>
+          <t>Ian Fernandes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="G2" t="n">
-        <v>9268.99</v>
+        <v>7905.53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70753</v>
+        <v>30379</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clarice Pereira</t>
+          <t>Lorena da Paz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45088</v>
+        <v>45099</v>
       </c>
       <c r="G3" t="n">
-        <v>6224.76</v>
+        <v>9996.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19618</v>
+        <v>49181</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Julia Azevedo</t>
+          <t>Melissa Sales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,27 +552,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45085</v>
+        <v>45088</v>
       </c>
       <c r="G4" t="n">
-        <v>4325.74</v>
+        <v>5398.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>77537</v>
+        <v>37169</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Laís da Costa</t>
+          <t>Sophie Farias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,27 +581,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45092</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>10038.7</v>
+        <v>7273.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17864</v>
+        <v>30749</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>João Guilherme Costa</t>
+          <t>Fernanda Melo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -613,77 +613,77 @@
         <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45082</v>
+        <v>45099</v>
       </c>
       <c r="G6" t="n">
-        <v>8098.48</v>
+        <v>7216.54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12544</v>
+        <v>6754</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ana Clara Lopes</t>
+          <t>Kevin Cardoso</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45096</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>10535.36</v>
+        <v>5952.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>19664</v>
+        <v>27793</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Henrique da Rocha</t>
+          <t>Luiz Henrique da Rosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>10106.72</v>
+        <v>10521.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10936</v>
+        <v>51432</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Enzo da Rocha</t>
+          <t>Luiz Henrique Moreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,31 +693,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45084</v>
       </c>
       <c r="G9" t="n">
-        <v>11410.21</v>
+        <v>10711.07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>48670</v>
+        <v>90077</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Davi Lucca Aragão</t>
+          <t>Pietra Duarte</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>45099</v>
       </c>
       <c r="G10" t="n">
-        <v>6240.23</v>
+        <v>11536.51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80387</v>
+        <v>40013</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luigi Caldeira</t>
+          <t>Breno Cunha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45083</v>
+        <v>45082</v>
       </c>
       <c r="G11" t="n">
-        <v>5444.49</v>
+        <v>5746.87</v>
       </c>
     </row>
   </sheetData>
